--- a/InputFiles/TestCases.xlsx
+++ b/InputFiles/TestCases.xlsx
@@ -10,13 +10,14 @@
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="TestSteps" sheetId="1" r:id="rId2"/>
     <sheet name="TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="Reference" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -121,9 +122,6 @@
   </si>
   <si>
     <t>TC_009</t>
-  </si>
-  <si>
-    <t>Kannada|loginpage</t>
   </si>
   <si>
     <t>Navigate the given browser URL</t>
@@ -145,6 +143,147 @@
       </rPr>
       <t>DATA params should be mention "Selected Language|Page name";</t>
     </r>
+  </si>
+  <si>
+    <t>TC_003_LoginPageAttributesValidation</t>
+  </si>
+  <si>
+    <t>Verify the Login page attributes validation test cases</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>http://dqfn4clx0bazt.cloudfront.net</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Kannada|loginpage|\\InputFiles\\MultiligualTestData.xlsx</t>
+  </si>
+  <si>
+    <t>English-loginpage-\\InputFiles\\ElementAttsData.xlsx</t>
+  </si>
+  <si>
+    <t>TC_004_LoginPageTestCases</t>
+  </si>
+  <si>
+    <t>Rumode</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ValidationMessage</t>
+  </si>
+  <si>
+    <t>jakay</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Invalid Email Format</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>14px</t>
+  </si>
+  <si>
+    <t>#556063</t>
+  </si>
+  <si>
+    <t>loginpage.emailadd.label</t>
+  </si>
+  <si>
+    <t>34|401</t>
+  </si>
+  <si>
+    <t>loginpage.emailadd.txtbox</t>
+  </si>
+  <si>
+    <t>loginpage.emailadd.txtbox.close.icon</t>
+  </si>
+  <si>
+    <t>#8d979a</t>
+  </si>
+  <si>
+    <t>VerifyElementSize</t>
+  </si>
+  <si>
+    <t>VerifyElementColor</t>
+  </si>
+  <si>
+    <t>CheckElementPresent</t>
+  </si>
+  <si>
+    <t>Enter "EMAIL OR PHONE"</t>
+  </si>
+  <si>
+    <t>enterText</t>
+  </si>
+  <si>
+    <t>Verify the Element Size of the "EMAIL ADDRESS" text.</t>
+  </si>
+  <si>
+    <t>Check "EMAIL  ADDRESS" text box present or Not?</t>
+  </si>
+  <si>
+    <t>Verify Element Size Of the EMAIL ADDRESS Text box</t>
+  </si>
+  <si>
+    <t>Verify the "EMAIL ADDRESS" icon is present or not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the "EMAIL ADDRESS" icon is color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After entered the "EMAIL ADDRESS" Verify the icon is color </t>
+  </si>
+  <si>
+    <t>VerifyElementTextName</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Jayakumar</t>
+  </si>
+  <si>
+    <t>Verify the Element Text Name.</t>
+  </si>
+  <si>
+    <t>VerifyElementTextBoxSize</t>
+  </si>
+  <si>
+    <t>VerifyIconColor</t>
+  </si>
+  <si>
+    <t>#f33154</t>
+  </si>
+  <si>
+    <t>Verify the Element color of the "EMAIL ADDRESS" text.</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Tamil</t>
   </si>
 </sst>
 </file>
@@ -183,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +347,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -222,13 +373,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
@@ -560,26 +716,52 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,19 +770,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="68.140625" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,187 +807,582 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>35</v>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>